--- a/xlsx/韓國_intext.xlsx
+++ b/xlsx/韓國_intext.xlsx
@@ -29,7 +29,7 @@
     <t>韓國 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_行政_韓國</t>
+    <t>体育运动_体育运动_奥林匹克运动会_韓國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
